--- a/2020/June/Others/Allocation Sheet.xlsx
+++ b/2020/June/Others/Allocation Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
   <si>
     <t>BL60</t>
   </si>
@@ -496,7 +496,10 @@
     <t>Z50</t>
   </si>
   <si>
-    <t>MD ROBIUL ISLAM</t>
+    <t>T180</t>
+  </si>
+  <si>
+    <t>MD SOHEL RANA</t>
   </si>
 </sst>
 </file>
@@ -998,6 +1001,39 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,37 +1088,43 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,45 +1138,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1536,7 +1539,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2636,7 +2639,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3082,7 +3085,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3153,7 +3156,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3227,7 +3230,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3298,7 +3301,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3960,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3984,65 +3987,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="72" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="36" t="s">
@@ -5048,14 +5051,14 @@
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="78"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
       <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" hidden="1" customHeight="1">
@@ -5073,13 +5076,13 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="39" t="s">
@@ -5096,15 +5099,15 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="80"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="56"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="39" t="s">
@@ -5127,13 +5130,13 @@
       <c r="J40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="78" t="s">
+      <c r="K40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="81"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="57"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="39" t="s">
@@ -5158,7 +5161,7 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="81"/>
+      <c r="O41" s="57"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="39" t="s">
@@ -5183,7 +5186,7 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="81"/>
+      <c r="O42" s="57"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="39" t="s">
@@ -5208,7 +5211,7 @@
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="81"/>
+      <c r="O43" s="57"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="39" t="s">
@@ -5233,7 +5236,7 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="81"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="44" t="s">
@@ -5258,7 +5261,7 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="81"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="44" t="s">
@@ -5283,7 +5286,7 @@
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="81"/>
+      <c r="O46" s="57"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="44" t="s">
@@ -5308,7 +5311,7 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="81"/>
+      <c r="O47" s="57"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="39" t="s">
@@ -5333,12 +5336,18 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
-      <c r="O48" s="81"/>
+      <c r="O48" s="57"/>
     </row>
     <row r="49" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
+      <c r="A49" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="46">
+        <v>1220</v>
+      </c>
+      <c r="C49" s="46">
+        <v>1320</v>
+      </c>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
@@ -5352,47 +5361,47 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
-      <c r="O49" s="82"/>
+      <c r="O49" s="58"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="58" t="s">
+      <c r="E50" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="60" t="s">
+      <c r="M50" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="60"/>
-      <c r="O50" s="61"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="72"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="63"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="74"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="48"/>
@@ -5412,27 +5421,27 @@
       <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="51"/>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
-      <c r="G53" s="66" t="s">
+      <c r="G53" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="67"/>
-      <c r="I53" s="68"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="79"/>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
       <c r="L53" s="51"/>
-      <c r="M53" s="65" t="s">
+      <c r="M53" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="N53" s="65"/>
-      <c r="O53" s="65"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="52"/>
@@ -5441,9 +5450,9 @@
       <c r="D54" s="51"/>
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="71"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" s="51"/>
@@ -5459,6 +5468,18 @@
     <sortCondition ref="I6:I36"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="E50:K51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="G53:I54"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="A2:O2"/>
@@ -5466,18 +5487,6 @@
     <mergeCell ref="I39:N39"/>
     <mergeCell ref="O39:O49"/>
     <mergeCell ref="K40:N40"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="E50:K51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="G53:I54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5514,73 +5523,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="95" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5588,12 +5597,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6697,14 +6706,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="87" t="s">
+      <c r="I44" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="88"/>
+      <c r="J44" s="91"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6722,13 +6731,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6745,15 +6754,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="89" t="s">
+      <c r="I46" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="90"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="93"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6776,13 +6785,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="91"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="94"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6807,7 +6816,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="91"/>
+      <c r="O48" s="94"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6832,7 +6841,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="91"/>
+      <c r="O49" s="94"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6857,7 +6866,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="91"/>
+      <c r="O50" s="94"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6882,7 +6891,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="91"/>
+      <c r="O51" s="94"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6907,7 +6916,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="91"/>
+      <c r="O52" s="94"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6932,7 +6941,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="91"/>
+      <c r="O53" s="94"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6957,7 +6966,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="91"/>
+      <c r="O54" s="94"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6982,7 +6991,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="91"/>
+      <c r="O55" s="94"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -7007,7 +7016,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="92"/>
+      <c r="O56" s="95"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -7027,49 +7036,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="86" t="s">
+      <c r="F58" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="84" t="s">
+      <c r="N58" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="84"/>
+      <c r="O58" s="97"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7080,15 +7089,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="98"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7099,11 +7108,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
+      <c r="N61" s="97"/>
+      <c r="O61" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="N59:O60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="F58:K59"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A1:E1"/>
@@ -7111,19 +7133,6 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="N59:O60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="F58:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
